--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8990616445384421</v>
+        <v>0.9178988381992794</v>
       </c>
       <c r="D2">
-        <v>0.9946879074144044</v>
+        <v>0.9960422874864701</v>
       </c>
       <c r="E2">
-        <v>0.6510695357137655</v>
+        <v>0.7310413714076835</v>
       </c>
       <c r="F2">
-        <v>0.4522576134912761</v>
+        <v>0.5318041844337564</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8990616445384421</v>
+        <v>0.9178988381992794</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9070841149805946</v>
+        <v>0.9003135897864745</v>
       </c>
       <c r="E3">
-        <v>0.5329650914013166</v>
+        <v>0.5583582407298047</v>
       </c>
       <c r="F3">
-        <v>0.4384160492667393</v>
+        <v>0.3838788986999662</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9946879074144044</v>
+        <v>0.9960422874864701</v>
       </c>
       <c r="C4">
-        <v>0.9070841149805946</v>
+        <v>0.9003135897864745</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.6077146306949306</v>
+        <v>0.5920910891106557</v>
       </c>
       <c r="F4">
-        <v>0.3133365610501055</v>
+        <v>0.3019004315381617</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6510695357137655</v>
+        <v>0.7310413714076835</v>
       </c>
       <c r="C5">
-        <v>0.5329650914013166</v>
+        <v>0.5583582407298047</v>
       </c>
       <c r="D5">
-        <v>0.6077146306949306</v>
+        <v>0.5920910891106557</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0970304200965364</v>
+        <v>0.1411561762585349</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4522576134912761</v>
+        <v>0.5318041844337564</v>
       </c>
       <c r="C6">
-        <v>0.4384160492667393</v>
+        <v>0.3838788986999662</v>
       </c>
       <c r="D6">
-        <v>0.3133365610501055</v>
+        <v>0.3019004315381617</v>
       </c>
       <c r="E6">
-        <v>0.0970304200965364</v>
+        <v>0.1411561762585349</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1269140996717128</v>
+        <v>-0.1049569952345589</v>
       </c>
       <c r="D2">
-        <v>-0.006661245807591963</v>
+        <v>-0.005049575427194796</v>
       </c>
       <c r="E2">
-        <v>0.4525613426224996</v>
+        <v>0.3506904956766931</v>
       </c>
       <c r="F2">
-        <v>-0.7522709892657311</v>
+        <v>-0.6411141255092242</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1269140996717128</v>
+        <v>0.1049569952345589</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1167790206013766</v>
+        <v>0.1275570710381784</v>
       </c>
       <c r="E3">
-        <v>0.6239383553903994</v>
+        <v>0.5995915562271927</v>
       </c>
       <c r="F3">
-        <v>-0.7755184826169772</v>
+        <v>-0.898952806297762</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.006661245807591963</v>
+        <v>0.005049575427194796</v>
       </c>
       <c r="C4">
-        <v>-0.1167790206013766</v>
+        <v>-0.1275570710381784</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5136770948981283</v>
+        <v>0.5483466213747694</v>
       </c>
       <c r="F4">
-        <v>-1.009307903339521</v>
+        <v>-1.071889061149453</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.4525613426224996</v>
+        <v>-0.3506904956766931</v>
       </c>
       <c r="C5">
-        <v>-0.6239383553903994</v>
+        <v>-0.5995915562271927</v>
       </c>
       <c r="D5">
-        <v>-0.5136770948981283</v>
+        <v>-0.5483466213747694</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.662681251121836</v>
+        <v>-1.559652995885853</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7522709892657311</v>
+        <v>0.6411141255092242</v>
       </c>
       <c r="C6">
-        <v>0.7755184826169772</v>
+        <v>0.898952806297762</v>
       </c>
       <c r="D6">
-        <v>1.009307903339521</v>
+        <v>1.071889061149453</v>
       </c>
       <c r="E6">
-        <v>1.662681251121836</v>
+        <v>1.559652995885853</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9178988381992794</v>
+        <v>0.2335687192768723</v>
       </c>
       <c r="D2">
-        <v>0.9960422874864701</v>
+        <v>0.6748275728230384</v>
       </c>
       <c r="E2">
-        <v>0.7310413714076835</v>
+        <v>0.6923129986950629</v>
       </c>
       <c r="F2">
-        <v>0.5318041844337564</v>
+        <v>0.8795614737808932</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9178988381992794</v>
+        <v>0.2335687192768723</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9003135897864745</v>
+        <v>0.4765788116661325</v>
       </c>
       <c r="E3">
-        <v>0.5583582407298047</v>
+        <v>0.3347166272283082</v>
       </c>
       <c r="F3">
-        <v>0.3838788986999662</v>
+        <v>0.1732311478791808</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9960422874864701</v>
+        <v>0.6748275728230384</v>
       </c>
       <c r="C4">
-        <v>0.9003135897864745</v>
+        <v>0.4765788116661325</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5920910891106557</v>
+        <v>0.4360739015184261</v>
       </c>
       <c r="F4">
-        <v>0.3019004315381617</v>
+        <v>0.6046787550800703</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7310413714076835</v>
+        <v>0.6923129986950629</v>
       </c>
       <c r="C5">
-        <v>0.5583582407298047</v>
+        <v>0.3347166272283082</v>
       </c>
       <c r="D5">
-        <v>0.5920910891106557</v>
+        <v>0.4360739015184261</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1411561762585349</v>
+        <v>0.6805721917605534</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5318041844337564</v>
+        <v>0.8795614737808932</v>
       </c>
       <c r="C6">
-        <v>0.3838788986999662</v>
+        <v>0.1732311478791808</v>
       </c>
       <c r="D6">
-        <v>0.3019004315381617</v>
+        <v>0.6046787550800703</v>
       </c>
       <c r="E6">
-        <v>0.1411561762585349</v>
+        <v>0.6805721917605534</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1049569952345589</v>
+        <v>1.224894568744071</v>
       </c>
       <c r="D2">
-        <v>-0.005049575427194796</v>
+        <v>0.4251909521788932</v>
       </c>
       <c r="E2">
-        <v>0.3506904956766931</v>
+        <v>-0.4009658325967667</v>
       </c>
       <c r="F2">
-        <v>-0.6411141255092242</v>
+        <v>-0.1532970032895228</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1049569952345589</v>
+        <v>-1.224894568744071</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1275570710381784</v>
+        <v>-0.7241927149805505</v>
       </c>
       <c r="E3">
-        <v>0.5995915562271927</v>
+        <v>-0.986285792523555</v>
       </c>
       <c r="F3">
-        <v>-0.898952806297762</v>
+        <v>-1.407571042571851</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.005049575427194796</v>
+        <v>-0.4251909521788932</v>
       </c>
       <c r="C4">
-        <v>-0.1275570710381784</v>
+        <v>0.7241927149805505</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5483466213747694</v>
+        <v>-0.7933035243821263</v>
       </c>
       <c r="F4">
-        <v>-1.071889061149453</v>
+        <v>-0.5252273798394438</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.3506904956766931</v>
+        <v>0.4009658325967667</v>
       </c>
       <c r="C5">
-        <v>-0.5995915562271927</v>
+        <v>0.986285792523555</v>
       </c>
       <c r="D5">
-        <v>-0.5483466213747694</v>
+        <v>0.7933035243821263</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.559652995885853</v>
+        <v>0.4172042282763631</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6411141255092242</v>
+        <v>0.1532970032895228</v>
       </c>
       <c r="C6">
-        <v>0.898952806297762</v>
+        <v>1.407571042571851</v>
       </c>
       <c r="D6">
-        <v>1.071889061149453</v>
+        <v>0.5252273798394438</v>
       </c>
       <c r="E6">
-        <v>1.559652995885853</v>
+        <v>-0.4172042282763631</v>
       </c>
       <c r="F6">
         <v>0</v>
